--- a/Cajas de Info VSM Lavadoras.xlsx
+++ b/Cajas de Info VSM Lavadoras.xlsx
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:G91"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -878,7 +878,7 @@
     <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -889,8 +889,11 @@
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -910,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -930,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -950,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -970,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -990,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -3320,6 +3323,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="E109:G109"/>
     <mergeCell ref="A55:C55"/>
@@ -3328,12 +3337,6 @@
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
